--- a/db_pembayaran.xlsx
+++ b/db_pembayaran.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01 - data\05 - pembayaran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pembayaran\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A568C0BB-644D-4CE7-B439-38A7B0F24736}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" tabRatio="820" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t00_tahunajaran" sheetId="1" r:id="rId1"/>
@@ -18,6 +19,7 @@
     <sheet name="t03_siswa" sheetId="4" r:id="rId4"/>
     <sheet name="t04_pmbrutin" sheetId="5" r:id="rId5"/>
     <sheet name="t05_siswapmbrutin" sheetId="7" r:id="rId6"/>
+    <sheet name="t06_siswapmbrutinbayar" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -170,12 +172,60 @@
   </si>
   <si>
     <t>nilai</t>
+  </si>
+  <si>
+    <t>t06_siswapmbrutinbayar</t>
+  </si>
+  <si>
+    <t>bulan</t>
+  </si>
+  <si>
+    <t>tahun</t>
+  </si>
+  <si>
+    <t>bayar_tgl</t>
+  </si>
+  <si>
+    <t>bayar_jumlah</t>
+  </si>
+  <si>
+    <t>Agustus</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Oktober</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>Desember</t>
+  </si>
+  <si>
+    <t>Januari</t>
+  </si>
+  <si>
+    <t>Februari</t>
+  </si>
+  <si>
+    <t>Maret</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Mei</t>
+  </si>
+  <si>
+    <t>siswapmbrutin_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -239,7 +289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -273,6 +323,9 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
@@ -555,7 +608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -594,13 +647,13 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="B4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -682,7 +735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:K7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -717,12 +770,12 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -780,7 +833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:J12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -811,11 +864,11 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -927,7 +980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:L12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -966,13 +1019,13 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1134,7 +1187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1161,10 +1214,10 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -1232,10 +1285,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -1267,12 +1320,12 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -1441,4 +1494,263 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210D7E6C-7B69-434B-86D3-D42FDE4C39EC}">
+  <dimension ref="B2:I18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <f>t03_siswa!$B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <f>t03_siswa!$B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <f>t03_siswa!$B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <f>t03_siswa!$B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <f>t03_siswa!$B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <f>t03_siswa!$B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <f>t03_siswa!$B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <f>t03_siswa!$B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <f>t03_siswa!$B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <f>t03_siswa!$B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1">
+        <f>t03_siswa!$B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <f>t03_siswa!$B$7</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/db_pembayaran.xlsx
+++ b/db_pembayaran.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pembayaran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A568C0BB-644D-4CE7-B439-38A7B0F24736}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB4AA20-E553-4149-8821-1A9EBE8535A9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" tabRatio="820" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -187,36 +187,6 @@
   </si>
   <si>
     <t>bayar_jumlah</t>
-  </si>
-  <si>
-    <t>Agustus</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>Oktober</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>Desember</t>
-  </si>
-  <si>
-    <t>Januari</t>
-  </si>
-  <si>
-    <t>Februari</t>
-  </si>
-  <si>
-    <t>Maret</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>Mei</t>
   </si>
   <si>
     <t>siswapmbrutin_id</t>
@@ -294,9 +264,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -327,6 +294,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -647,47 +617,47 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="2:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -770,42 +740,42 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -813,7 +783,7 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -864,37 +834,37 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -902,7 +872,7 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f>t01_sekolah!$B$7</f>
         <v>1</v>
       </c>
@@ -914,7 +884,7 @@
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f>t01_sekolah!$B$7</f>
         <v>1</v>
       </c>
@@ -926,7 +896,7 @@
       <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f>t01_sekolah!$B$7</f>
         <v>1</v>
       </c>
@@ -938,7 +908,7 @@
       <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f>t01_sekolah!$B$7</f>
         <v>1</v>
       </c>
@@ -950,7 +920,7 @@
       <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f>t01_sekolah!$B$7</f>
         <v>1</v>
       </c>
@@ -962,7 +932,7 @@
       <c r="B12" s="1">
         <v>6</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f>t01_sekolah!$B$7</f>
         <v>1</v>
       </c>
@@ -1019,47 +989,47 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="2:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1071,11 +1041,11 @@
         <f>t00_tahunajaran!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f>t02_kelas!$B$7</f>
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1090,11 +1060,11 @@
         <f>t00_tahunajaran!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>t02_kelas!$B$7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1109,11 +1079,11 @@
         <f>t00_tahunajaran!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f>t02_kelas!$B$7</f>
         <v>1</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1128,11 +1098,11 @@
         <f>t00_tahunajaran!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f>t02_kelas!$B$7</f>
         <v>1</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1147,11 +1117,11 @@
         <f>t00_tahunajaran!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f>t02_kelas!$B$7</f>
         <v>1</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1166,11 +1136,11 @@
         <f>t00_tahunajaran!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <f>t02_kelas!$B$7</f>
         <v>1</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1214,32 +1184,32 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1301,7 +1271,7 @@
     <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1315,47 +1285,47 @@
       <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1367,11 +1337,11 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f>t04_pmbrutin!$B$7</f>
         <v>1</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>100000</v>
       </c>
     </row>
@@ -1383,11 +1353,11 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>t04_pmbrutin!$B$8</f>
         <v>2</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>125000</v>
       </c>
     </row>
@@ -1399,11 +1369,11 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f>t04_pmbrutin!$B$9</f>
         <v>3</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>150000</v>
       </c>
     </row>
@@ -1415,11 +1385,11 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f>t04_pmbrutin!$B$10</f>
         <v>4</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>175000</v>
       </c>
     </row>
@@ -1431,11 +1401,11 @@
         <f>t03_siswa!$B$8</f>
         <v>2</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f>t04_pmbrutin!$B$7</f>
         <v>1</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>200000</v>
       </c>
     </row>
@@ -1447,11 +1417,11 @@
         <f>t03_siswa!$B$8</f>
         <v>2</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <f>t04_pmbrutin!$B$8</f>
         <v>2</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>225000</v>
       </c>
     </row>
@@ -1463,11 +1433,11 @@
         <f>t03_siswa!$B$8</f>
         <v>2</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <f>t04_pmbrutin!$B$9</f>
         <v>3</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>250000</v>
       </c>
     </row>
@@ -1479,11 +1449,11 @@
         <f>t03_siswa!$B$8</f>
         <v>2</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <f>t04_pmbrutin!$B$10</f>
         <v>4</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>275000</v>
       </c>
     </row>
@@ -1504,15 +1474,15 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1528,44 +1498,44 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1577,8 +1547,8 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
+      <c r="D7" s="1">
+        <v>7</v>
       </c>
       <c r="E7" s="1">
         <v>2018</v>
@@ -1592,8 +1562,8 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>52</v>
+      <c r="D8" s="1">
+        <v>8</v>
       </c>
       <c r="E8" s="1">
         <v>2018</v>
@@ -1607,8 +1577,8 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>53</v>
+      <c r="D9" s="1">
+        <v>9</v>
       </c>
       <c r="E9" s="1">
         <v>2018</v>
@@ -1622,8 +1592,8 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>54</v>
+      <c r="D10" s="1">
+        <v>10</v>
       </c>
       <c r="E10" s="1">
         <v>2018</v>
@@ -1637,8 +1607,8 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>55</v>
+      <c r="D11" s="1">
+        <v>11</v>
       </c>
       <c r="E11" s="1">
         <v>2018</v>
@@ -1652,8 +1622,8 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>56</v>
+      <c r="D12" s="1">
+        <v>12</v>
       </c>
       <c r="E12" s="1">
         <v>2018</v>
@@ -1667,8 +1637,8 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>57</v>
+      <c r="D13" s="1">
+        <v>13</v>
       </c>
       <c r="E13" s="1">
         <v>2019</v>
@@ -1682,8 +1652,8 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>58</v>
+      <c r="D14" s="1">
+        <v>14</v>
       </c>
       <c r="E14" s="1">
         <v>2019</v>
@@ -1697,8 +1667,8 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>59</v>
+      <c r="D15" s="1">
+        <v>15</v>
       </c>
       <c r="E15" s="1">
         <v>2019</v>
@@ -1712,8 +1682,8 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>60</v>
+      <c r="D16" s="1">
+        <v>16</v>
       </c>
       <c r="E16" s="1">
         <v>2019</v>
@@ -1727,8 +1697,8 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>61</v>
+      <c r="D17" s="1">
+        <v>17</v>
       </c>
       <c r="E17" s="1">
         <v>2019</v>
@@ -1742,14 +1712,17 @@
         <f>t03_siswa!$B$7</f>
         <v>1</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
+      <c r="D18" s="1">
+        <v>18</v>
       </c>
       <c r="E18" s="1">
         <v>2019</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:G4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
